--- a/03-15组会/实验耗时.xlsx
+++ b/03-15组会/实验耗时.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Iov-with-FL\03-15组会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE4092-1FCC-44D7-9BD5-354712FAEF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BECE43F-ED0C-4DA3-8F1C-88688C9F0824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -67,11 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狄利克雷 alpha =1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狄利克雷 alpha =0.5</t>
+    <t>alpha =1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha =0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,6 +79,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,17 +129,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +631,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -629,6 +639,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,6 +660,8 @@
       <c r="B2" s="2">
         <v>5.347222222222222E-3</v>
       </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -657,6 +670,8 @@
       <c r="B3" s="2">
         <v>1.2256944444444445E-2</v>
       </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -665,6 +680,12 @@
       <c r="B4" s="3">
         <v>1.681712962962963E-2</v>
       </c>
+      <c r="C4" s="4">
+        <v>25729.3686244487</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23216.558683156902</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -673,6 +694,12 @@
       <c r="B5" s="3">
         <v>2.3784722222222221E-2</v>
       </c>
+      <c r="C5" s="4">
+        <v>40129.540446996602</v>
+      </c>
+      <c r="D5" s="4">
+        <v>36544.290291309298</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -681,16 +708,36 @@
       <c r="B6" s="3">
         <v>3.9583333333333331E-2</v>
       </c>
+      <c r="C6" s="4">
+        <v>64781.909460306102</v>
+      </c>
+      <c r="D6" s="5">
+        <v>55243.2814788818</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="3">
+        <v>1.9958043981481481E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>61723.835149526501</v>
+      </c>
+      <c r="D7" s="5">
+        <v>51818.960726737903</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="4">
+        <v>1581.3305733203799</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/03-15组会/实验耗时.xlsx
+++ b/03-15组会/实验耗时.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Iov-with-FL\03-15组会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BECE43F-ED0C-4DA3-8F1C-88688C9F0824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF1389-9CEF-4A61-A93D-4EC9FAAF69CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,8 +80,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -136,16 +136,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +631,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -660,8 +660,12 @@
       <c r="B2" s="2">
         <v>5.347222222222222E-3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="4">
+        <v>7552.88194561004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6762.5446150302796</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -670,8 +674,12 @@
       <c r="B3" s="2">
         <v>1.2256944444444445E-2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="4">
+        <v>17637.3968584537</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15554.9311037063</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -737,7 +745,7 @@
         <v>1581.3305733203799</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/03-15组会/实验耗时.xlsx
+++ b/03-15组会/实验耗时.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Iov-with-FL\03-15组会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF1389-9CEF-4A61-A93D-4EC9FAAF69CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52834926-D11E-4605-BC41-855A5E7841B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FedCan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,31 +47,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dynamics-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamics-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamics-75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamics-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing tai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alpha =1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alpha =0.5</t>
+    <t>Dirichlet alpha =1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dirichlet alpha =0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pathological</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics-25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics-50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics-75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics-100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预训练耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qianyi-CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,9 +87,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -129,24 +136,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,124 +632,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <f>1151.90842247009+B9</f>
+        <v>1699.9139196872679</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7552.88194561004</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6762.5446150302796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <f>2654.82055735588+B9</f>
+        <v>3202.8260545730577</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17637.3968584537</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15554.9311037063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <f>3459.53001308441+B9</f>
+        <v>4007.5355103015877</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25729.3686244487</v>
+      </c>
+      <c r="D4" s="4">
+        <v>23216.558683156902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <f>4982.56454372406+B9</f>
+        <v>5530.5700409412384</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40129.540446996602</v>
+      </c>
+      <c r="D5" s="3">
+        <v>36544.290291309298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f>3859.82926607131+B9</f>
+        <v>4407.8347632884879</v>
+      </c>
+      <c r="C6" s="3">
+        <v>61370.943907499299</v>
+      </c>
+      <c r="D6" s="4">
+        <v>50774.016184568398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>5.347222222222222E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>7552.88194561004</v>
-      </c>
-      <c r="D2" s="5">
-        <v>6762.5446150302796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B7" s="3">
+        <f>2110.37581348419+B9</f>
+        <v>2658.381310701368</v>
+      </c>
+      <c r="C7" s="3">
+        <v>61723.835149526501</v>
+      </c>
+      <c r="D7" s="4">
+        <v>51818.960726737903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.2256944444444445E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>17637.3968584537</v>
-      </c>
-      <c r="D3" s="5">
-        <v>15554.9311037063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.681712962962963E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>25729.3686244487</v>
-      </c>
-      <c r="D4" s="5">
-        <v>23216.558683156902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2.3784722222222221E-2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>40129.540446996602</v>
-      </c>
-      <c r="D5" s="4">
-        <v>36544.290291309298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>64781.909460306102</v>
-      </c>
-      <c r="D6" s="5">
-        <v>55243.2814788818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.9958043981481481E-2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>61723.835149526501</v>
-      </c>
-      <c r="D7" s="5">
-        <v>51818.960726737903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1581.3305733203799</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="3">
+        <f>1895.04182314872+B9</f>
+        <v>2443.047320365898</v>
+      </c>
+      <c r="C8" s="3">
+        <v>64316.040275335297</v>
+      </c>
+      <c r="D8" s="4">
+        <v>53757.7409567832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>548.005497217178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>935.67188382148697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>1023.7765793800299</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
